--- a/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
+++ b/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
@@ -34658,7 +34658,7 @@
     </row>
     <row r="22">
       <c r="A22" s="90" t="n">
-        <v>374175152000</v>
+        <v>374485412000.0001</v>
       </c>
       <c r="B22" s="91" t="inlineStr">
         <is>

--- a/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
+++ b/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
@@ -34658,7 +34658,7 @@
     </row>
     <row r="22">
       <c r="A22" s="90" t="n">
-        <v>374485412000.0001</v>
+        <v>374485411999.9999</v>
       </c>
       <c r="B22" s="91" t="inlineStr">
         <is>

--- a/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
+++ b/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
@@ -34658,7 +34658,7 @@
     </row>
     <row r="22">
       <c r="A22" s="90" t="n">
-        <v>374485411999.9999</v>
+        <v>374485412000</v>
       </c>
       <c r="B22" s="91" t="inlineStr">
         <is>
